--- a/yabuki-a/PM演習矢吹a/テスト実施チェックリスト.xlsx
+++ b/yabuki-a/PM演習矢吹a/テスト実施チェックリスト.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,35 +411,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,50 +723,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
-    <col min="3" max="3" width="71.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="71.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C1" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -776,10 +776,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -789,10 +789,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -802,10 +802,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -815,10 +815,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -828,10 +828,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -841,47 +841,47 @@
         <v>3</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -891,10 +891,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -904,10 +904,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -917,10 +917,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -930,47 +930,47 @@
         <v>20</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <v>5</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -980,10 +980,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -993,10 +993,10 @@
         <v>7</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1006,10 +1006,10 @@
         <v>9</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1019,10 +1019,10 @@
         <v>27</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1032,10 +1032,10 @@
         <v>29</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1045,10 +1045,10 @@
         <v>30</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1058,47 +1058,47 @@
         <v>3</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <v>8</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="32" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1108,10 +1108,10 @@
         <v>34</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1121,20 +1121,20 @@
         <v>36</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <v>3</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
